--- a/models/models.xlsx
+++ b/models/models.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B323C67-B0C7-4C2E-867A-E10924356861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C92C4B6-B0F9-4C82-BB1C-85D48ADC0348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{635E8393-0A12-4C55-AB50-6567886706BC}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>model</t>
   </si>
@@ -69,17 +66,53 @@
     <t>Baseline, tested on all langs that have results from either SIG20 or SIG21. All available  versions (broad, narrow, filtered) of one lang are included here.</t>
   </si>
   <si>
-    <t>used as-is, minimum possible number of steps: 10000</t>
+    <t>evaluation_id</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>eval_02.txt</t>
+  </si>
+  <si>
+    <t>notes_on_eval</t>
+  </si>
+  <si>
+    <t>tested on north wind and sun dicts</t>
+  </si>
+  <si>
+    <t>eng_latn_us_broad_filtered, fre_latn_broad_filtered, geo_geor_broad_filtered, gre_grek_broad_filtered, gre_grek_narrow, hin_deva_broad_filtered, hin_deva_narrow,</t>
+  </si>
+  <si>
+    <t>tested on dicts created by the g2p framework</t>
+  </si>
+  <si>
+    <t>only tested on those language versions that have actually been used in SIGMORPHON task (i.e. only broad or narrow), if it was unclear what version the test set has it was tested on both, broad usually perfomed better</t>
+  </si>
+  <si>
+    <t>used as-is, maximal number of steps (i.e. max_epochs=0, such that it stops when there is no improvement), max is 200,000 steps</t>
+  </si>
+  <si>
+    <t>used as-is, minimum possible number of steps: 10,000</t>
+  </si>
+  <si>
+    <t>not yet done with training</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,71 +457,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8231B97C-203A-4D70-81CA-CB60B4AF272A}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.85546875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="53.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="124.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="124.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/models/models.xlsx
+++ b/models/models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C92C4B6-B0F9-4C82-BB1C-85D48ADC0348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C84189-7476-4497-BEC8-DB96F37ACE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{635E8393-0A12-4C55-AB50-6567886706BC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>model</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,6 +564,9 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -575,6 +578,9 @@
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/models/models.xlsx
+++ b/models/models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\MA_fork\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C84189-7476-4497-BEC8-DB96F37ACE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFAE8F2-4C1E-4FAF-BAD9-12B5FC420F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{635E8393-0A12-4C55-AB50-6567886706BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{635E8393-0A12-4C55-AB50-6567886706BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>model</t>
   </si>
@@ -54,9 +54,6 @@
     <t>eval_01.txt</t>
   </si>
   <si>
-    <t>CMUSphinx</t>
-  </si>
-  <si>
     <t>eng_latn_uk_broad_filtered, eng_latn_uk_narrow, eng_latn_us_broad_filtered, eng_latn_us_narrow, fre_latn_broad_filtered, fre_latn_narrow, geo_geor_broad_filtered, gre_grek_broad_filtered, gre_grek_narrow, hin_deva_broad_filtered, hin_deva_narrow, jpn_hira_narrow_filtered, kor_hang_narrow_filtered, vie_latn_hanoi_narrow_filtered</t>
   </si>
   <si>
@@ -97,13 +94,40 @@
   </si>
   <si>
     <t>not yet done with training</t>
+  </si>
+  <si>
+    <t>eval_03.txt</t>
+  </si>
+  <si>
+    <t>200,000 steps</t>
+  </si>
+  <si>
+    <t>10,000 steps</t>
+  </si>
+  <si>
+    <t>baseline_short_raw</t>
+  </si>
+  <si>
+    <t>baseline_long_raw</t>
+  </si>
+  <si>
+    <t>baseline_short_clean</t>
+  </si>
+  <si>
+    <t>baseline_long_clean</t>
+  </si>
+  <si>
+    <t>F2_short_clean</t>
+  </si>
+  <si>
+    <t>F2_long_clean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +141,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,17 +189,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20 % - Akzent4" xfId="2" builtinId="42"/>
+    <cellStyle name="20 % - Akzent6" xfId="3" builtinId="50"/>
+    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,16 +551,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8231B97C-203A-4D70-81CA-CB60B4AF272A}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="49" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
@@ -476,112 +570,347 @@
     <col min="10" max="11" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="124.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="124.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/models/models.xlsx
+++ b/models/models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\MA_fork\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFAE8F2-4C1E-4FAF-BAD9-12B5FC420F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4FE663-AA9C-41EF-8321-2CF7A4F1AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{635E8393-0A12-4C55-AB50-6567886706BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{635E8393-0A12-4C55-AB50-6567886706BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>model</t>
   </si>
@@ -57,9 +57,6 @@
     <t>eng_latn_uk_broad_filtered, eng_latn_uk_narrow, eng_latn_us_broad_filtered, eng_latn_us_narrow, fre_latn_broad_filtered, fre_latn_narrow, geo_geor_broad_filtered, gre_grek_broad_filtered, gre_grek_narrow, hin_deva_broad_filtered, hin_deva_narrow, jpn_hira_narrow_filtered, kor_hang_narrow_filtered, vie_latn_hanoi_narrow_filtered</t>
   </si>
   <si>
-    <t>macro_avg (WER)</t>
-  </si>
-  <si>
     <t>Baseline, tested on all langs that have results from either SIG20 or SIG21. All available  versions (broad, narrow, filtered) of one lang are included here.</t>
   </si>
   <si>
@@ -93,12 +90,6 @@
     <t>used as-is, minimum possible number of steps: 10,000</t>
   </si>
   <si>
-    <t>not yet done with training</t>
-  </si>
-  <si>
-    <t>eval_03.txt</t>
-  </si>
-  <si>
     <t>200,000 steps</t>
   </si>
   <si>
@@ -121,13 +112,34 @@
   </si>
   <si>
     <t>F2_long_clean</t>
+  </si>
+  <si>
+    <t>cmn_hani_broad deu_latn_broad_filtered deu_latn_narrow eus_latn_broad fin_latn_broad fin_latn_narrow ind_latn_broad ind_latn_narrow kat_geor_broad_filtered mya_mymr_broad_filtered rus_cyrl_narrow spa_latn_ca_broad_filtered spa_latn_ca_narrow spa_latn_la_broad_filtered kor_hang_narrow_filtered spa_latn_la_narrow tgl_latn_broad tgl_latn_narrow tha_thai_broad tur_latn_broad tur_latn_narrow_filtered zul_latn_broad vie_latn_hanoi_narrow_filtered eng_latn_uk_broad_filtered eng_latn_uk_narrow eng_latn_us_broad_filtered eng_latn_us_narrow ell_grek_broad_filtered fra_latn_broad_filtered hin_deva_broad_filtered hin_deva_narrow jpn_hira_narrow_filtered</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>baseline_models_long_clean_eval_scores.txt</t>
+  </si>
+  <si>
+    <t>baselines_models_long_raw_eval_scores.txt</t>
+  </si>
+  <si>
+    <t>baselines_models_short_clean_eval_scores.txt</t>
+  </si>
+  <si>
+    <t>F2_models_long_clean_eval_scores_no_features.txt</t>
+  </si>
+  <si>
+    <t>F2_models_short_clean_eval_scores_no_features.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,25 +160,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -205,40 +205,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="20 % - Akzent4" xfId="2" builtinId="42"/>
-    <cellStyle name="20 % - Akzent6" xfId="3" builtinId="50"/>
-    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
+  <cellStyles count="3">
+    <cellStyle name="20 % - Akzent4" xfId="1" builtinId="42"/>
+    <cellStyle name="20 % - Akzent6" xfId="2" builtinId="50"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,31 +547,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8231B97C-203A-4D70-81CA-CB60B4AF272A}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:DF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="49" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="21.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:110" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -590,80 +584,269 @@
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:110" s="7" customFormat="1" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+    </row>
+    <row r="3" spans="1:110" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="124.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:110" s="3" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -671,28 +854,125 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4"/>
+      <c r="CI4"/>
+      <c r="CJ4"/>
+      <c r="CK4"/>
+      <c r="CL4"/>
+      <c r="CM4"/>
+      <c r="CN4"/>
+      <c r="CO4"/>
+      <c r="CP4"/>
+      <c r="CQ4"/>
+      <c r="CR4"/>
+      <c r="CS4"/>
+      <c r="CT4"/>
+      <c r="CU4"/>
+      <c r="CV4"/>
+      <c r="CW4"/>
+      <c r="CX4"/>
+      <c r="CY4"/>
+      <c r="CZ4"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4"/>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:110" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -700,20 +980,121 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5"/>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5"/>
+      <c r="BQ5"/>
+      <c r="BR5"/>
+      <c r="BS5"/>
+      <c r="BT5"/>
+      <c r="BU5"/>
+      <c r="BV5"/>
+      <c r="BW5"/>
+      <c r="BX5"/>
+      <c r="BY5"/>
+      <c r="BZ5"/>
+      <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
+      <c r="CF5"/>
+      <c r="CG5"/>
+      <c r="CH5"/>
+      <c r="CI5"/>
+      <c r="CJ5"/>
+      <c r="CK5"/>
+      <c r="CL5"/>
+      <c r="CM5"/>
+      <c r="CN5"/>
+      <c r="CO5"/>
+      <c r="CP5"/>
+      <c r="CQ5"/>
+      <c r="CR5"/>
+      <c r="CS5"/>
+      <c r="CT5"/>
+      <c r="CU5"/>
+      <c r="CV5"/>
+      <c r="CW5"/>
+      <c r="CX5"/>
+      <c r="CY5"/>
+      <c r="CZ5"/>
+      <c r="DA5"/>
+      <c r="DB5"/>
+      <c r="DC5"/>
+      <c r="DD5"/>
+      <c r="DE5"/>
+      <c r="DF5"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:110" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -721,22 +1102,125 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6"/>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6"/>
+      <c r="BT6"/>
+      <c r="BU6"/>
+      <c r="BV6"/>
+      <c r="BW6"/>
+      <c r="BX6"/>
+      <c r="BY6"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
+      <c r="CF6"/>
+      <c r="CG6"/>
+      <c r="CH6"/>
+      <c r="CI6"/>
+      <c r="CJ6"/>
+      <c r="CK6"/>
+      <c r="CL6"/>
+      <c r="CM6"/>
+      <c r="CN6"/>
+      <c r="CO6"/>
+      <c r="CP6"/>
+      <c r="CQ6"/>
+      <c r="CR6"/>
+      <c r="CS6"/>
+      <c r="CT6"/>
+      <c r="CU6"/>
+      <c r="CV6"/>
+      <c r="CW6"/>
+      <c r="CX6"/>
+      <c r="CY6"/>
+      <c r="CZ6"/>
+      <c r="DA6"/>
+      <c r="DB6"/>
+      <c r="DC6"/>
+      <c r="DD6"/>
+      <c r="DE6"/>
+      <c r="DF6"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:110" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -744,68 +1228,369 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:110" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8"/>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8"/>
+      <c r="BQ8"/>
+      <c r="BR8"/>
+      <c r="BS8"/>
+      <c r="BT8"/>
+      <c r="BU8"/>
+      <c r="BV8"/>
+      <c r="BW8"/>
+      <c r="BX8"/>
+      <c r="BY8"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
+      <c r="CF8"/>
+      <c r="CG8"/>
+      <c r="CH8"/>
+      <c r="CI8"/>
+      <c r="CJ8"/>
+      <c r="CK8"/>
+      <c r="CL8"/>
+      <c r="CM8"/>
+      <c r="CN8"/>
+      <c r="CO8"/>
+      <c r="CP8"/>
+      <c r="CQ8"/>
+      <c r="CR8"/>
+      <c r="CS8"/>
+      <c r="CT8"/>
+      <c r="CU8"/>
+      <c r="CV8"/>
+      <c r="CW8"/>
+      <c r="CX8"/>
+      <c r="CY8"/>
+      <c r="CZ8"/>
+      <c r="DA8"/>
+      <c r="DB8"/>
+      <c r="DC8"/>
+      <c r="DD8"/>
+      <c r="DE8"/>
+      <c r="DF8"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:110" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+      <c r="CJ9"/>
+      <c r="CK9"/>
+      <c r="CL9"/>
+      <c r="CM9"/>
+      <c r="CN9"/>
+      <c r="CO9"/>
+      <c r="CP9"/>
+      <c r="CQ9"/>
+      <c r="CR9"/>
+      <c r="CS9"/>
+      <c r="CT9"/>
+      <c r="CU9"/>
+      <c r="CV9"/>
+      <c r="CW9"/>
+      <c r="CX9"/>
+      <c r="CY9"/>
+      <c r="CZ9"/>
+      <c r="DA9"/>
+      <c r="DB9"/>
+      <c r="DC9"/>
+      <c r="DD9"/>
+      <c r="DE9"/>
+      <c r="DF9"/>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:110" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -813,22 +1598,125 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10"/>
+      <c r="BR10"/>
+      <c r="BS10"/>
+      <c r="BT10"/>
+      <c r="BU10"/>
+      <c r="BV10"/>
+      <c r="BW10"/>
+      <c r="BX10"/>
+      <c r="BY10"/>
+      <c r="BZ10"/>
+      <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
+      <c r="CD10"/>
+      <c r="CE10"/>
+      <c r="CF10"/>
+      <c r="CG10"/>
+      <c r="CH10"/>
+      <c r="CI10"/>
+      <c r="CJ10"/>
+      <c r="CK10"/>
+      <c r="CL10"/>
+      <c r="CM10"/>
+      <c r="CN10"/>
+      <c r="CO10"/>
+      <c r="CP10"/>
+      <c r="CQ10"/>
+      <c r="CR10"/>
+      <c r="CS10"/>
+      <c r="CT10"/>
+      <c r="CU10"/>
+      <c r="CV10"/>
+      <c r="CW10"/>
+      <c r="CX10"/>
+      <c r="CY10"/>
+      <c r="CZ10"/>
+      <c r="DA10"/>
+      <c r="DB10"/>
+      <c r="DC10"/>
+      <c r="DD10"/>
+      <c r="DE10"/>
+      <c r="DF10"/>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:110" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -836,22 +1724,121 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+      <c r="BS11"/>
+      <c r="BT11"/>
+      <c r="BU11"/>
+      <c r="BV11"/>
+      <c r="BW11"/>
+      <c r="BX11"/>
+      <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
+      <c r="CG11"/>
+      <c r="CH11"/>
+      <c r="CI11"/>
+      <c r="CJ11"/>
+      <c r="CK11"/>
+      <c r="CL11"/>
+      <c r="CM11"/>
+      <c r="CN11"/>
+      <c r="CO11"/>
+      <c r="CP11"/>
+      <c r="CQ11"/>
+      <c r="CR11"/>
+      <c r="CS11"/>
+      <c r="CT11"/>
+      <c r="CU11"/>
+      <c r="CV11"/>
+      <c r="CW11"/>
+      <c r="CX11"/>
+      <c r="CY11"/>
+      <c r="CZ11"/>
+      <c r="DA11"/>
+      <c r="DB11"/>
+      <c r="DC11"/>
+      <c r="DD11"/>
+      <c r="DE11"/>
+      <c r="DF11"/>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:110" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -859,22 +1846,125 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
+      <c r="CI12"/>
+      <c r="CJ12"/>
+      <c r="CK12"/>
+      <c r="CL12"/>
+      <c r="CM12"/>
+      <c r="CN12"/>
+      <c r="CO12"/>
+      <c r="CP12"/>
+      <c r="CQ12"/>
+      <c r="CR12"/>
+      <c r="CS12"/>
+      <c r="CT12"/>
+      <c r="CU12"/>
+      <c r="CV12"/>
+      <c r="CW12"/>
+      <c r="CX12"/>
+      <c r="CY12"/>
+      <c r="CZ12"/>
+      <c r="DA12"/>
+      <c r="DB12"/>
+      <c r="DC12"/>
+      <c r="DD12"/>
+      <c r="DE12"/>
+      <c r="DF12"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:110" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -882,22 +1972,121 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
+      <c r="BX13"/>
+      <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
+      <c r="CF13"/>
+      <c r="CG13"/>
+      <c r="CH13"/>
+      <c r="CI13"/>
+      <c r="CJ13"/>
+      <c r="CK13"/>
+      <c r="CL13"/>
+      <c r="CM13"/>
+      <c r="CN13"/>
+      <c r="CO13"/>
+      <c r="CP13"/>
+      <c r="CQ13"/>
+      <c r="CR13"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
+      <c r="CU13"/>
+      <c r="CV13"/>
+      <c r="CW13"/>
+      <c r="CX13"/>
+      <c r="CY13"/>
+      <c r="CZ13"/>
+      <c r="DA13"/>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -906,11 +2095,6 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/models/models.xlsx
+++ b/models/models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\MA_fork\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4FE663-AA9C-41EF-8321-2CF7A4F1AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9403FC7D-C70D-45AC-96C5-5389D9466523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{635E8393-0A12-4C55-AB50-6567886706BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{635E8393-0A12-4C55-AB50-6567886706BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
-  <si>
-    <t>model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>languages</t>
   </si>
@@ -51,12 +48,6 @@
     <t>results_file</t>
   </si>
   <si>
-    <t>eval_01.txt</t>
-  </si>
-  <si>
-    <t>eng_latn_uk_broad_filtered, eng_latn_uk_narrow, eng_latn_us_broad_filtered, eng_latn_us_narrow, fre_latn_broad_filtered, fre_latn_narrow, geo_geor_broad_filtered, gre_grek_broad_filtered, gre_grek_narrow, hin_deva_broad_filtered, hin_deva_narrow, jpn_hira_narrow_filtered, kor_hang_narrow_filtered, vie_latn_hanoi_narrow_filtered</t>
-  </si>
-  <si>
     <t>Baseline, tested on all langs that have results from either SIG20 or SIG21. All available  versions (broad, narrow, filtered) of one lang are included here.</t>
   </si>
   <si>
@@ -66,16 +57,10 @@
     <t>model_id</t>
   </si>
   <si>
-    <t>eval_02.txt</t>
-  </si>
-  <si>
     <t>notes_on_eval</t>
   </si>
   <si>
     <t>tested on north wind and sun dicts</t>
-  </si>
-  <si>
-    <t>eng_latn_us_broad_filtered, fre_latn_broad_filtered, geo_geor_broad_filtered, gre_grek_broad_filtered, gre_grek_narrow, hin_deva_broad_filtered, hin_deva_narrow,</t>
   </si>
   <si>
     <t>tested on dicts created by the g2p framework</t>
@@ -134,6 +119,9 @@
   <si>
     <t>F2_models_short_clean_eval_scores_no_features.txt</t>
   </si>
+  <si>
+    <t>model_name</t>
+  </si>
 </sst>
 </file>
 
@@ -161,18 +149,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -205,36 +187,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="20 % - Akzent4" xfId="1" builtinId="42"/>
-    <cellStyle name="20 % - Akzent6" xfId="2" builtinId="50"/>
+  <cellStyles count="2">
+    <cellStyle name="20 % - Akzent6" xfId="1" builtinId="50"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,73 +527,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8231B97C-203A-4D70-81CA-CB60B4AF272A}">
-  <dimension ref="A1:DF14"/>
+  <dimension ref="A1:LQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="49" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:329" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:329" s="4" customFormat="1" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:110" s="7" customFormat="1" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -717,31 +694,248 @@
       <c r="DD2"/>
       <c r="DE2"/>
       <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
     </row>
-    <row r="3" spans="1:110" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:329" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>12</v>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -845,8 +1039,227 @@
       <c r="DD3"/>
       <c r="DE3"/>
       <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3"/>
+      <c r="DY3"/>
+      <c r="DZ3"/>
+      <c r="EA3"/>
+      <c r="EB3"/>
+      <c r="EC3"/>
+      <c r="ED3"/>
+      <c r="EE3"/>
+      <c r="EF3"/>
+      <c r="EG3"/>
+      <c r="EH3"/>
+      <c r="EI3"/>
+      <c r="EJ3"/>
+      <c r="EK3"/>
+      <c r="EL3"/>
+      <c r="EM3"/>
+      <c r="EN3"/>
+      <c r="EO3"/>
+      <c r="EP3"/>
+      <c r="EQ3"/>
+      <c r="ER3"/>
+      <c r="ES3"/>
+      <c r="ET3"/>
+      <c r="EU3"/>
+      <c r="EV3"/>
+      <c r="EW3"/>
+      <c r="EX3"/>
+      <c r="EY3"/>
+      <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3"/>
+      <c r="FC3"/>
+      <c r="FD3"/>
+      <c r="FE3"/>
+      <c r="FF3"/>
+      <c r="FG3"/>
+      <c r="FH3"/>
+      <c r="FI3"/>
+      <c r="FJ3"/>
+      <c r="FK3"/>
+      <c r="FL3"/>
+      <c r="FM3"/>
+      <c r="FN3"/>
+      <c r="FO3"/>
+      <c r="FP3"/>
+      <c r="FQ3"/>
+      <c r="FR3"/>
+      <c r="FS3"/>
+      <c r="FT3"/>
+      <c r="FU3"/>
+      <c r="FV3"/>
+      <c r="FW3"/>
+      <c r="FX3"/>
+      <c r="FY3"/>
+      <c r="FZ3"/>
+      <c r="GA3"/>
+      <c r="GB3"/>
+      <c r="GC3"/>
+      <c r="GD3"/>
+      <c r="GE3"/>
+      <c r="GF3"/>
+      <c r="GG3"/>
+      <c r="GH3"/>
+      <c r="GI3"/>
+      <c r="GJ3"/>
+      <c r="GK3"/>
+      <c r="GL3"/>
+      <c r="GM3"/>
+      <c r="GN3"/>
+      <c r="GO3"/>
+      <c r="GP3"/>
+      <c r="GQ3"/>
+      <c r="GR3"/>
+      <c r="GS3"/>
+      <c r="GT3"/>
+      <c r="GU3"/>
+      <c r="GV3"/>
+      <c r="GW3"/>
+      <c r="GX3"/>
+      <c r="GY3"/>
+      <c r="GZ3"/>
+      <c r="HA3"/>
+      <c r="HB3"/>
+      <c r="HC3"/>
+      <c r="HD3"/>
+      <c r="HE3"/>
+      <c r="HF3"/>
+      <c r="HG3"/>
+      <c r="HH3"/>
+      <c r="HI3"/>
+      <c r="HJ3"/>
+      <c r="HK3"/>
+      <c r="HL3"/>
+      <c r="HM3"/>
+      <c r="HN3"/>
+      <c r="HO3"/>
+      <c r="HP3"/>
+      <c r="HQ3"/>
+      <c r="HR3"/>
+      <c r="HS3"/>
+      <c r="HT3"/>
+      <c r="HU3"/>
+      <c r="HV3"/>
+      <c r="HW3"/>
+      <c r="HX3"/>
+      <c r="HY3"/>
+      <c r="HZ3"/>
+      <c r="IA3"/>
+      <c r="IB3"/>
+      <c r="IC3"/>
+      <c r="ID3"/>
+      <c r="IE3"/>
+      <c r="IF3"/>
+      <c r="IG3"/>
+      <c r="IH3"/>
+      <c r="II3"/>
+      <c r="IJ3"/>
+      <c r="IK3"/>
+      <c r="IL3"/>
+      <c r="IM3"/>
+      <c r="IN3"/>
+      <c r="IO3"/>
+      <c r="IP3"/>
+      <c r="IQ3"/>
+      <c r="IR3"/>
+      <c r="IS3"/>
+      <c r="IT3"/>
+      <c r="IU3"/>
+      <c r="IV3"/>
+      <c r="IW3"/>
+      <c r="IX3"/>
+      <c r="IY3"/>
+      <c r="IZ3"/>
+      <c r="JA3"/>
+      <c r="JB3"/>
+      <c r="JC3"/>
+      <c r="JD3"/>
+      <c r="JE3"/>
+      <c r="JF3"/>
+      <c r="JG3"/>
+      <c r="JH3"/>
+      <c r="JI3"/>
+      <c r="JJ3"/>
+      <c r="JK3"/>
+      <c r="JL3"/>
+      <c r="JM3"/>
+      <c r="JN3"/>
+      <c r="JO3"/>
+      <c r="JP3"/>
+      <c r="JQ3"/>
+      <c r="JR3"/>
+      <c r="JS3"/>
+      <c r="JT3"/>
+      <c r="JU3"/>
+      <c r="JV3"/>
+      <c r="JW3"/>
+      <c r="JX3"/>
+      <c r="JY3"/>
+      <c r="JZ3"/>
+      <c r="KA3"/>
+      <c r="KB3"/>
+      <c r="KC3"/>
+      <c r="KD3"/>
+      <c r="KE3"/>
+      <c r="KF3"/>
+      <c r="KG3"/>
+      <c r="KH3"/>
+      <c r="KI3"/>
+      <c r="KJ3"/>
+      <c r="KK3"/>
+      <c r="KL3"/>
+      <c r="KM3"/>
+      <c r="KN3"/>
+      <c r="KO3"/>
+      <c r="KP3"/>
+      <c r="KQ3"/>
+      <c r="KR3"/>
+      <c r="KS3"/>
+      <c r="KT3"/>
+      <c r="KU3"/>
+      <c r="KV3"/>
+      <c r="KW3"/>
+      <c r="KX3"/>
+      <c r="KY3"/>
+      <c r="KZ3"/>
+      <c r="LA3"/>
+      <c r="LB3"/>
+      <c r="LC3"/>
+      <c r="LD3"/>
+      <c r="LE3"/>
+      <c r="LF3"/>
+      <c r="LG3"/>
+      <c r="LH3"/>
+      <c r="LI3"/>
+      <c r="LJ3"/>
+      <c r="LK3"/>
+      <c r="LL3"/>
+      <c r="LM3"/>
+      <c r="LN3"/>
+      <c r="LO3"/>
+      <c r="LP3"/>
+      <c r="LQ3"/>
     </row>
-    <row r="4" spans="1:110" s="3" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:329" s="3" customFormat="1" ht="220.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -854,20 +1267,20 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -971,8 +1384,227 @@
       <c r="DD4"/>
       <c r="DE4"/>
       <c r="DF4"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+      <c r="DR4"/>
+      <c r="DS4"/>
+      <c r="DT4"/>
+      <c r="DU4"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4"/>
+      <c r="DY4"/>
+      <c r="DZ4"/>
+      <c r="EA4"/>
+      <c r="EB4"/>
+      <c r="EC4"/>
+      <c r="ED4"/>
+      <c r="EE4"/>
+      <c r="EF4"/>
+      <c r="EG4"/>
+      <c r="EH4"/>
+      <c r="EI4"/>
+      <c r="EJ4"/>
+      <c r="EK4"/>
+      <c r="EL4"/>
+      <c r="EM4"/>
+      <c r="EN4"/>
+      <c r="EO4"/>
+      <c r="EP4"/>
+      <c r="EQ4"/>
+      <c r="ER4"/>
+      <c r="ES4"/>
+      <c r="ET4"/>
+      <c r="EU4"/>
+      <c r="EV4"/>
+      <c r="EW4"/>
+      <c r="EX4"/>
+      <c r="EY4"/>
+      <c r="EZ4"/>
+      <c r="FA4"/>
+      <c r="FB4"/>
+      <c r="FC4"/>
+      <c r="FD4"/>
+      <c r="FE4"/>
+      <c r="FF4"/>
+      <c r="FG4"/>
+      <c r="FH4"/>
+      <c r="FI4"/>
+      <c r="FJ4"/>
+      <c r="FK4"/>
+      <c r="FL4"/>
+      <c r="FM4"/>
+      <c r="FN4"/>
+      <c r="FO4"/>
+      <c r="FP4"/>
+      <c r="FQ4"/>
+      <c r="FR4"/>
+      <c r="FS4"/>
+      <c r="FT4"/>
+      <c r="FU4"/>
+      <c r="FV4"/>
+      <c r="FW4"/>
+      <c r="FX4"/>
+      <c r="FY4"/>
+      <c r="FZ4"/>
+      <c r="GA4"/>
+      <c r="GB4"/>
+      <c r="GC4"/>
+      <c r="GD4"/>
+      <c r="GE4"/>
+      <c r="GF4"/>
+      <c r="GG4"/>
+      <c r="GH4"/>
+      <c r="GI4"/>
+      <c r="GJ4"/>
+      <c r="GK4"/>
+      <c r="GL4"/>
+      <c r="GM4"/>
+      <c r="GN4"/>
+      <c r="GO4"/>
+      <c r="GP4"/>
+      <c r="GQ4"/>
+      <c r="GR4"/>
+      <c r="GS4"/>
+      <c r="GT4"/>
+      <c r="GU4"/>
+      <c r="GV4"/>
+      <c r="GW4"/>
+      <c r="GX4"/>
+      <c r="GY4"/>
+      <c r="GZ4"/>
+      <c r="HA4"/>
+      <c r="HB4"/>
+      <c r="HC4"/>
+      <c r="HD4"/>
+      <c r="HE4"/>
+      <c r="HF4"/>
+      <c r="HG4"/>
+      <c r="HH4"/>
+      <c r="HI4"/>
+      <c r="HJ4"/>
+      <c r="HK4"/>
+      <c r="HL4"/>
+      <c r="HM4"/>
+      <c r="HN4"/>
+      <c r="HO4"/>
+      <c r="HP4"/>
+      <c r="HQ4"/>
+      <c r="HR4"/>
+      <c r="HS4"/>
+      <c r="HT4"/>
+      <c r="HU4"/>
+      <c r="HV4"/>
+      <c r="HW4"/>
+      <c r="HX4"/>
+      <c r="HY4"/>
+      <c r="HZ4"/>
+      <c r="IA4"/>
+      <c r="IB4"/>
+      <c r="IC4"/>
+      <c r="ID4"/>
+      <c r="IE4"/>
+      <c r="IF4"/>
+      <c r="IG4"/>
+      <c r="IH4"/>
+      <c r="II4"/>
+      <c r="IJ4"/>
+      <c r="IK4"/>
+      <c r="IL4"/>
+      <c r="IM4"/>
+      <c r="IN4"/>
+      <c r="IO4"/>
+      <c r="IP4"/>
+      <c r="IQ4"/>
+      <c r="IR4"/>
+      <c r="IS4"/>
+      <c r="IT4"/>
+      <c r="IU4"/>
+      <c r="IV4"/>
+      <c r="IW4"/>
+      <c r="IX4"/>
+      <c r="IY4"/>
+      <c r="IZ4"/>
+      <c r="JA4"/>
+      <c r="JB4"/>
+      <c r="JC4"/>
+      <c r="JD4"/>
+      <c r="JE4"/>
+      <c r="JF4"/>
+      <c r="JG4"/>
+      <c r="JH4"/>
+      <c r="JI4"/>
+      <c r="JJ4"/>
+      <c r="JK4"/>
+      <c r="JL4"/>
+      <c r="JM4"/>
+      <c r="JN4"/>
+      <c r="JO4"/>
+      <c r="JP4"/>
+      <c r="JQ4"/>
+      <c r="JR4"/>
+      <c r="JS4"/>
+      <c r="JT4"/>
+      <c r="JU4"/>
+      <c r="JV4"/>
+      <c r="JW4"/>
+      <c r="JX4"/>
+      <c r="JY4"/>
+      <c r="JZ4"/>
+      <c r="KA4"/>
+      <c r="KB4"/>
+      <c r="KC4"/>
+      <c r="KD4"/>
+      <c r="KE4"/>
+      <c r="KF4"/>
+      <c r="KG4"/>
+      <c r="KH4"/>
+      <c r="KI4"/>
+      <c r="KJ4"/>
+      <c r="KK4"/>
+      <c r="KL4"/>
+      <c r="KM4"/>
+      <c r="KN4"/>
+      <c r="KO4"/>
+      <c r="KP4"/>
+      <c r="KQ4"/>
+      <c r="KR4"/>
+      <c r="KS4"/>
+      <c r="KT4"/>
+      <c r="KU4"/>
+      <c r="KV4"/>
+      <c r="KW4"/>
+      <c r="KX4"/>
+      <c r="KY4"/>
+      <c r="KZ4"/>
+      <c r="LA4"/>
+      <c r="LB4"/>
+      <c r="LC4"/>
+      <c r="LD4"/>
+      <c r="LE4"/>
+      <c r="LF4"/>
+      <c r="LG4"/>
+      <c r="LH4"/>
+      <c r="LI4"/>
+      <c r="LJ4"/>
+      <c r="LK4"/>
+      <c r="LL4"/>
+      <c r="LM4"/>
+      <c r="LN4"/>
+      <c r="LO4"/>
+      <c r="LP4"/>
+      <c r="LQ4"/>
     </row>
-    <row r="5" spans="1:110" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:329" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -980,17 +1612,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -1093,8 +1727,227 @@
       <c r="DD5"/>
       <c r="DE5"/>
       <c r="DF5"/>
+      <c r="DG5"/>
+      <c r="DH5"/>
+      <c r="DI5"/>
+      <c r="DJ5"/>
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+      <c r="DP5"/>
+      <c r="DQ5"/>
+      <c r="DR5"/>
+      <c r="DS5"/>
+      <c r="DT5"/>
+      <c r="DU5"/>
+      <c r="DV5"/>
+      <c r="DW5"/>
+      <c r="DX5"/>
+      <c r="DY5"/>
+      <c r="DZ5"/>
+      <c r="EA5"/>
+      <c r="EB5"/>
+      <c r="EC5"/>
+      <c r="ED5"/>
+      <c r="EE5"/>
+      <c r="EF5"/>
+      <c r="EG5"/>
+      <c r="EH5"/>
+      <c r="EI5"/>
+      <c r="EJ5"/>
+      <c r="EK5"/>
+      <c r="EL5"/>
+      <c r="EM5"/>
+      <c r="EN5"/>
+      <c r="EO5"/>
+      <c r="EP5"/>
+      <c r="EQ5"/>
+      <c r="ER5"/>
+      <c r="ES5"/>
+      <c r="ET5"/>
+      <c r="EU5"/>
+      <c r="EV5"/>
+      <c r="EW5"/>
+      <c r="EX5"/>
+      <c r="EY5"/>
+      <c r="EZ5"/>
+      <c r="FA5"/>
+      <c r="FB5"/>
+      <c r="FC5"/>
+      <c r="FD5"/>
+      <c r="FE5"/>
+      <c r="FF5"/>
+      <c r="FG5"/>
+      <c r="FH5"/>
+      <c r="FI5"/>
+      <c r="FJ5"/>
+      <c r="FK5"/>
+      <c r="FL5"/>
+      <c r="FM5"/>
+      <c r="FN5"/>
+      <c r="FO5"/>
+      <c r="FP5"/>
+      <c r="FQ5"/>
+      <c r="FR5"/>
+      <c r="FS5"/>
+      <c r="FT5"/>
+      <c r="FU5"/>
+      <c r="FV5"/>
+      <c r="FW5"/>
+      <c r="FX5"/>
+      <c r="FY5"/>
+      <c r="FZ5"/>
+      <c r="GA5"/>
+      <c r="GB5"/>
+      <c r="GC5"/>
+      <c r="GD5"/>
+      <c r="GE5"/>
+      <c r="GF5"/>
+      <c r="GG5"/>
+      <c r="GH5"/>
+      <c r="GI5"/>
+      <c r="GJ5"/>
+      <c r="GK5"/>
+      <c r="GL5"/>
+      <c r="GM5"/>
+      <c r="GN5"/>
+      <c r="GO5"/>
+      <c r="GP5"/>
+      <c r="GQ5"/>
+      <c r="GR5"/>
+      <c r="GS5"/>
+      <c r="GT5"/>
+      <c r="GU5"/>
+      <c r="GV5"/>
+      <c r="GW5"/>
+      <c r="GX5"/>
+      <c r="GY5"/>
+      <c r="GZ5"/>
+      <c r="HA5"/>
+      <c r="HB5"/>
+      <c r="HC5"/>
+      <c r="HD5"/>
+      <c r="HE5"/>
+      <c r="HF5"/>
+      <c r="HG5"/>
+      <c r="HH5"/>
+      <c r="HI5"/>
+      <c r="HJ5"/>
+      <c r="HK5"/>
+      <c r="HL5"/>
+      <c r="HM5"/>
+      <c r="HN5"/>
+      <c r="HO5"/>
+      <c r="HP5"/>
+      <c r="HQ5"/>
+      <c r="HR5"/>
+      <c r="HS5"/>
+      <c r="HT5"/>
+      <c r="HU5"/>
+      <c r="HV5"/>
+      <c r="HW5"/>
+      <c r="HX5"/>
+      <c r="HY5"/>
+      <c r="HZ5"/>
+      <c r="IA5"/>
+      <c r="IB5"/>
+      <c r="IC5"/>
+      <c r="ID5"/>
+      <c r="IE5"/>
+      <c r="IF5"/>
+      <c r="IG5"/>
+      <c r="IH5"/>
+      <c r="II5"/>
+      <c r="IJ5"/>
+      <c r="IK5"/>
+      <c r="IL5"/>
+      <c r="IM5"/>
+      <c r="IN5"/>
+      <c r="IO5"/>
+      <c r="IP5"/>
+      <c r="IQ5"/>
+      <c r="IR5"/>
+      <c r="IS5"/>
+      <c r="IT5"/>
+      <c r="IU5"/>
+      <c r="IV5"/>
+      <c r="IW5"/>
+      <c r="IX5"/>
+      <c r="IY5"/>
+      <c r="IZ5"/>
+      <c r="JA5"/>
+      <c r="JB5"/>
+      <c r="JC5"/>
+      <c r="JD5"/>
+      <c r="JE5"/>
+      <c r="JF5"/>
+      <c r="JG5"/>
+      <c r="JH5"/>
+      <c r="JI5"/>
+      <c r="JJ5"/>
+      <c r="JK5"/>
+      <c r="JL5"/>
+      <c r="JM5"/>
+      <c r="JN5"/>
+      <c r="JO5"/>
+      <c r="JP5"/>
+      <c r="JQ5"/>
+      <c r="JR5"/>
+      <c r="JS5"/>
+      <c r="JT5"/>
+      <c r="JU5"/>
+      <c r="JV5"/>
+      <c r="JW5"/>
+      <c r="JX5"/>
+      <c r="JY5"/>
+      <c r="JZ5"/>
+      <c r="KA5"/>
+      <c r="KB5"/>
+      <c r="KC5"/>
+      <c r="KD5"/>
+      <c r="KE5"/>
+      <c r="KF5"/>
+      <c r="KG5"/>
+      <c r="KH5"/>
+      <c r="KI5"/>
+      <c r="KJ5"/>
+      <c r="KK5"/>
+      <c r="KL5"/>
+      <c r="KM5"/>
+      <c r="KN5"/>
+      <c r="KO5"/>
+      <c r="KP5"/>
+      <c r="KQ5"/>
+      <c r="KR5"/>
+      <c r="KS5"/>
+      <c r="KT5"/>
+      <c r="KU5"/>
+      <c r="KV5"/>
+      <c r="KW5"/>
+      <c r="KX5"/>
+      <c r="KY5"/>
+      <c r="KZ5"/>
+      <c r="LA5"/>
+      <c r="LB5"/>
+      <c r="LC5"/>
+      <c r="LD5"/>
+      <c r="LE5"/>
+      <c r="LF5"/>
+      <c r="LG5"/>
+      <c r="LH5"/>
+      <c r="LI5"/>
+      <c r="LJ5"/>
+      <c r="LK5"/>
+      <c r="LL5"/>
+      <c r="LM5"/>
+      <c r="LN5"/>
+      <c r="LO5"/>
+      <c r="LP5"/>
+      <c r="LQ5"/>
     </row>
-    <row r="6" spans="1:110" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:329" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1102,20 +1955,20 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1219,8 +2072,227 @@
       <c r="DD6"/>
       <c r="DE6"/>
       <c r="DF6"/>
+      <c r="DG6"/>
+      <c r="DH6"/>
+      <c r="DI6"/>
+      <c r="DJ6"/>
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+      <c r="DR6"/>
+      <c r="DS6"/>
+      <c r="DT6"/>
+      <c r="DU6"/>
+      <c r="DV6"/>
+      <c r="DW6"/>
+      <c r="DX6"/>
+      <c r="DY6"/>
+      <c r="DZ6"/>
+      <c r="EA6"/>
+      <c r="EB6"/>
+      <c r="EC6"/>
+      <c r="ED6"/>
+      <c r="EE6"/>
+      <c r="EF6"/>
+      <c r="EG6"/>
+      <c r="EH6"/>
+      <c r="EI6"/>
+      <c r="EJ6"/>
+      <c r="EK6"/>
+      <c r="EL6"/>
+      <c r="EM6"/>
+      <c r="EN6"/>
+      <c r="EO6"/>
+      <c r="EP6"/>
+      <c r="EQ6"/>
+      <c r="ER6"/>
+      <c r="ES6"/>
+      <c r="ET6"/>
+      <c r="EU6"/>
+      <c r="EV6"/>
+      <c r="EW6"/>
+      <c r="EX6"/>
+      <c r="EY6"/>
+      <c r="EZ6"/>
+      <c r="FA6"/>
+      <c r="FB6"/>
+      <c r="FC6"/>
+      <c r="FD6"/>
+      <c r="FE6"/>
+      <c r="FF6"/>
+      <c r="FG6"/>
+      <c r="FH6"/>
+      <c r="FI6"/>
+      <c r="FJ6"/>
+      <c r="FK6"/>
+      <c r="FL6"/>
+      <c r="FM6"/>
+      <c r="FN6"/>
+      <c r="FO6"/>
+      <c r="FP6"/>
+      <c r="FQ6"/>
+      <c r="FR6"/>
+      <c r="FS6"/>
+      <c r="FT6"/>
+      <c r="FU6"/>
+      <c r="FV6"/>
+      <c r="FW6"/>
+      <c r="FX6"/>
+      <c r="FY6"/>
+      <c r="FZ6"/>
+      <c r="GA6"/>
+      <c r="GB6"/>
+      <c r="GC6"/>
+      <c r="GD6"/>
+      <c r="GE6"/>
+      <c r="GF6"/>
+      <c r="GG6"/>
+      <c r="GH6"/>
+      <c r="GI6"/>
+      <c r="GJ6"/>
+      <c r="GK6"/>
+      <c r="GL6"/>
+      <c r="GM6"/>
+      <c r="GN6"/>
+      <c r="GO6"/>
+      <c r="GP6"/>
+      <c r="GQ6"/>
+      <c r="GR6"/>
+      <c r="GS6"/>
+      <c r="GT6"/>
+      <c r="GU6"/>
+      <c r="GV6"/>
+      <c r="GW6"/>
+      <c r="GX6"/>
+      <c r="GY6"/>
+      <c r="GZ6"/>
+      <c r="HA6"/>
+      <c r="HB6"/>
+      <c r="HC6"/>
+      <c r="HD6"/>
+      <c r="HE6"/>
+      <c r="HF6"/>
+      <c r="HG6"/>
+      <c r="HH6"/>
+      <c r="HI6"/>
+      <c r="HJ6"/>
+      <c r="HK6"/>
+      <c r="HL6"/>
+      <c r="HM6"/>
+      <c r="HN6"/>
+      <c r="HO6"/>
+      <c r="HP6"/>
+      <c r="HQ6"/>
+      <c r="HR6"/>
+      <c r="HS6"/>
+      <c r="HT6"/>
+      <c r="HU6"/>
+      <c r="HV6"/>
+      <c r="HW6"/>
+      <c r="HX6"/>
+      <c r="HY6"/>
+      <c r="HZ6"/>
+      <c r="IA6"/>
+      <c r="IB6"/>
+      <c r="IC6"/>
+      <c r="ID6"/>
+      <c r="IE6"/>
+      <c r="IF6"/>
+      <c r="IG6"/>
+      <c r="IH6"/>
+      <c r="II6"/>
+      <c r="IJ6"/>
+      <c r="IK6"/>
+      <c r="IL6"/>
+      <c r="IM6"/>
+      <c r="IN6"/>
+      <c r="IO6"/>
+      <c r="IP6"/>
+      <c r="IQ6"/>
+      <c r="IR6"/>
+      <c r="IS6"/>
+      <c r="IT6"/>
+      <c r="IU6"/>
+      <c r="IV6"/>
+      <c r="IW6"/>
+      <c r="IX6"/>
+      <c r="IY6"/>
+      <c r="IZ6"/>
+      <c r="JA6"/>
+      <c r="JB6"/>
+      <c r="JC6"/>
+      <c r="JD6"/>
+      <c r="JE6"/>
+      <c r="JF6"/>
+      <c r="JG6"/>
+      <c r="JH6"/>
+      <c r="JI6"/>
+      <c r="JJ6"/>
+      <c r="JK6"/>
+      <c r="JL6"/>
+      <c r="JM6"/>
+      <c r="JN6"/>
+      <c r="JO6"/>
+      <c r="JP6"/>
+      <c r="JQ6"/>
+      <c r="JR6"/>
+      <c r="JS6"/>
+      <c r="JT6"/>
+      <c r="JU6"/>
+      <c r="JV6"/>
+      <c r="JW6"/>
+      <c r="JX6"/>
+      <c r="JY6"/>
+      <c r="JZ6"/>
+      <c r="KA6"/>
+      <c r="KB6"/>
+      <c r="KC6"/>
+      <c r="KD6"/>
+      <c r="KE6"/>
+      <c r="KF6"/>
+      <c r="KG6"/>
+      <c r="KH6"/>
+      <c r="KI6"/>
+      <c r="KJ6"/>
+      <c r="KK6"/>
+      <c r="KL6"/>
+      <c r="KM6"/>
+      <c r="KN6"/>
+      <c r="KO6"/>
+      <c r="KP6"/>
+      <c r="KQ6"/>
+      <c r="KR6"/>
+      <c r="KS6"/>
+      <c r="KT6"/>
+      <c r="KU6"/>
+      <c r="KV6"/>
+      <c r="KW6"/>
+      <c r="KX6"/>
+      <c r="KY6"/>
+      <c r="KZ6"/>
+      <c r="LA6"/>
+      <c r="LB6"/>
+      <c r="LC6"/>
+      <c r="LD6"/>
+      <c r="LE6"/>
+      <c r="LF6"/>
+      <c r="LG6"/>
+      <c r="LH6"/>
+      <c r="LI6"/>
+      <c r="LJ6"/>
+      <c r="LK6"/>
+      <c r="LL6"/>
+      <c r="LM6"/>
+      <c r="LN6"/>
+      <c r="LO6"/>
+      <c r="LP6"/>
+      <c r="LQ6"/>
     </row>
-    <row r="7" spans="1:110" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:329" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1228,17 +2300,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1341,8 +2415,227 @@
       <c r="DD7"/>
       <c r="DE7"/>
       <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+      <c r="ED7"/>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7"/>
+      <c r="EI7"/>
+      <c r="EJ7"/>
+      <c r="EK7"/>
+      <c r="EL7"/>
+      <c r="EM7"/>
+      <c r="EN7"/>
+      <c r="EO7"/>
+      <c r="EP7"/>
+      <c r="EQ7"/>
+      <c r="ER7"/>
+      <c r="ES7"/>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7"/>
+      <c r="EW7"/>
+      <c r="EX7"/>
+      <c r="EY7"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7"/>
+      <c r="FF7"/>
+      <c r="FG7"/>
+      <c r="FH7"/>
+      <c r="FI7"/>
+      <c r="FJ7"/>
+      <c r="FK7"/>
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FN7"/>
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FQ7"/>
+      <c r="FR7"/>
+      <c r="FS7"/>
+      <c r="FT7"/>
+      <c r="FU7"/>
+      <c r="FV7"/>
+      <c r="FW7"/>
+      <c r="FX7"/>
+      <c r="FY7"/>
+      <c r="FZ7"/>
+      <c r="GA7"/>
+      <c r="GB7"/>
+      <c r="GC7"/>
+      <c r="GD7"/>
+      <c r="GE7"/>
+      <c r="GF7"/>
+      <c r="GG7"/>
+      <c r="GH7"/>
+      <c r="GI7"/>
+      <c r="GJ7"/>
+      <c r="GK7"/>
+      <c r="GL7"/>
+      <c r="GM7"/>
+      <c r="GN7"/>
+      <c r="GO7"/>
+      <c r="GP7"/>
+      <c r="GQ7"/>
+      <c r="GR7"/>
+      <c r="GS7"/>
+      <c r="GT7"/>
+      <c r="GU7"/>
+      <c r="GV7"/>
+      <c r="GW7"/>
+      <c r="GX7"/>
+      <c r="GY7"/>
+      <c r="GZ7"/>
+      <c r="HA7"/>
+      <c r="HB7"/>
+      <c r="HC7"/>
+      <c r="HD7"/>
+      <c r="HE7"/>
+      <c r="HF7"/>
+      <c r="HG7"/>
+      <c r="HH7"/>
+      <c r="HI7"/>
+      <c r="HJ7"/>
+      <c r="HK7"/>
+      <c r="HL7"/>
+      <c r="HM7"/>
+      <c r="HN7"/>
+      <c r="HO7"/>
+      <c r="HP7"/>
+      <c r="HQ7"/>
+      <c r="HR7"/>
+      <c r="HS7"/>
+      <c r="HT7"/>
+      <c r="HU7"/>
+      <c r="HV7"/>
+      <c r="HW7"/>
+      <c r="HX7"/>
+      <c r="HY7"/>
+      <c r="HZ7"/>
+      <c r="IA7"/>
+      <c r="IB7"/>
+      <c r="IC7"/>
+      <c r="ID7"/>
+      <c r="IE7"/>
+      <c r="IF7"/>
+      <c r="IG7"/>
+      <c r="IH7"/>
+      <c r="II7"/>
+      <c r="IJ7"/>
+      <c r="IK7"/>
+      <c r="IL7"/>
+      <c r="IM7"/>
+      <c r="IN7"/>
+      <c r="IO7"/>
+      <c r="IP7"/>
+      <c r="IQ7"/>
+      <c r="IR7"/>
+      <c r="IS7"/>
+      <c r="IT7"/>
+      <c r="IU7"/>
+      <c r="IV7"/>
+      <c r="IW7"/>
+      <c r="IX7"/>
+      <c r="IY7"/>
+      <c r="IZ7"/>
+      <c r="JA7"/>
+      <c r="JB7"/>
+      <c r="JC7"/>
+      <c r="JD7"/>
+      <c r="JE7"/>
+      <c r="JF7"/>
+      <c r="JG7"/>
+      <c r="JH7"/>
+      <c r="JI7"/>
+      <c r="JJ7"/>
+      <c r="JK7"/>
+      <c r="JL7"/>
+      <c r="JM7"/>
+      <c r="JN7"/>
+      <c r="JO7"/>
+      <c r="JP7"/>
+      <c r="JQ7"/>
+      <c r="JR7"/>
+      <c r="JS7"/>
+      <c r="JT7"/>
+      <c r="JU7"/>
+      <c r="JV7"/>
+      <c r="JW7"/>
+      <c r="JX7"/>
+      <c r="JY7"/>
+      <c r="JZ7"/>
+      <c r="KA7"/>
+      <c r="KB7"/>
+      <c r="KC7"/>
+      <c r="KD7"/>
+      <c r="KE7"/>
+      <c r="KF7"/>
+      <c r="KG7"/>
+      <c r="KH7"/>
+      <c r="KI7"/>
+      <c r="KJ7"/>
+      <c r="KK7"/>
+      <c r="KL7"/>
+      <c r="KM7"/>
+      <c r="KN7"/>
+      <c r="KO7"/>
+      <c r="KP7"/>
+      <c r="KQ7"/>
+      <c r="KR7"/>
+      <c r="KS7"/>
+      <c r="KT7"/>
+      <c r="KU7"/>
+      <c r="KV7"/>
+      <c r="KW7"/>
+      <c r="KX7"/>
+      <c r="KY7"/>
+      <c r="KZ7"/>
+      <c r="LA7"/>
+      <c r="LB7"/>
+      <c r="LC7"/>
+      <c r="LD7"/>
+      <c r="LE7"/>
+      <c r="LF7"/>
+      <c r="LG7"/>
+      <c r="LH7"/>
+      <c r="LI7"/>
+      <c r="LJ7"/>
+      <c r="LK7"/>
+      <c r="LL7"/>
+      <c r="LM7"/>
+      <c r="LN7"/>
+      <c r="LO7"/>
+      <c r="LP7"/>
+      <c r="LQ7"/>
     </row>
-    <row r="8" spans="1:110" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:329" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1350,20 +2643,20 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -1467,8 +2760,227 @@
       <c r="DD8"/>
       <c r="DE8"/>
       <c r="DF8"/>
+      <c r="DG8"/>
+      <c r="DH8"/>
+      <c r="DI8"/>
+      <c r="DJ8"/>
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+      <c r="DR8"/>
+      <c r="DS8"/>
+      <c r="DT8"/>
+      <c r="DU8"/>
+      <c r="DV8"/>
+      <c r="DW8"/>
+      <c r="DX8"/>
+      <c r="DY8"/>
+      <c r="DZ8"/>
+      <c r="EA8"/>
+      <c r="EB8"/>
+      <c r="EC8"/>
+      <c r="ED8"/>
+      <c r="EE8"/>
+      <c r="EF8"/>
+      <c r="EG8"/>
+      <c r="EH8"/>
+      <c r="EI8"/>
+      <c r="EJ8"/>
+      <c r="EK8"/>
+      <c r="EL8"/>
+      <c r="EM8"/>
+      <c r="EN8"/>
+      <c r="EO8"/>
+      <c r="EP8"/>
+      <c r="EQ8"/>
+      <c r="ER8"/>
+      <c r="ES8"/>
+      <c r="ET8"/>
+      <c r="EU8"/>
+      <c r="EV8"/>
+      <c r="EW8"/>
+      <c r="EX8"/>
+      <c r="EY8"/>
+      <c r="EZ8"/>
+      <c r="FA8"/>
+      <c r="FB8"/>
+      <c r="FC8"/>
+      <c r="FD8"/>
+      <c r="FE8"/>
+      <c r="FF8"/>
+      <c r="FG8"/>
+      <c r="FH8"/>
+      <c r="FI8"/>
+      <c r="FJ8"/>
+      <c r="FK8"/>
+      <c r="FL8"/>
+      <c r="FM8"/>
+      <c r="FN8"/>
+      <c r="FO8"/>
+      <c r="FP8"/>
+      <c r="FQ8"/>
+      <c r="FR8"/>
+      <c r="FS8"/>
+      <c r="FT8"/>
+      <c r="FU8"/>
+      <c r="FV8"/>
+      <c r="FW8"/>
+      <c r="FX8"/>
+      <c r="FY8"/>
+      <c r="FZ8"/>
+      <c r="GA8"/>
+      <c r="GB8"/>
+      <c r="GC8"/>
+      <c r="GD8"/>
+      <c r="GE8"/>
+      <c r="GF8"/>
+      <c r="GG8"/>
+      <c r="GH8"/>
+      <c r="GI8"/>
+      <c r="GJ8"/>
+      <c r="GK8"/>
+      <c r="GL8"/>
+      <c r="GM8"/>
+      <c r="GN8"/>
+      <c r="GO8"/>
+      <c r="GP8"/>
+      <c r="GQ8"/>
+      <c r="GR8"/>
+      <c r="GS8"/>
+      <c r="GT8"/>
+      <c r="GU8"/>
+      <c r="GV8"/>
+      <c r="GW8"/>
+      <c r="GX8"/>
+      <c r="GY8"/>
+      <c r="GZ8"/>
+      <c r="HA8"/>
+      <c r="HB8"/>
+      <c r="HC8"/>
+      <c r="HD8"/>
+      <c r="HE8"/>
+      <c r="HF8"/>
+      <c r="HG8"/>
+      <c r="HH8"/>
+      <c r="HI8"/>
+      <c r="HJ8"/>
+      <c r="HK8"/>
+      <c r="HL8"/>
+      <c r="HM8"/>
+      <c r="HN8"/>
+      <c r="HO8"/>
+      <c r="HP8"/>
+      <c r="HQ8"/>
+      <c r="HR8"/>
+      <c r="HS8"/>
+      <c r="HT8"/>
+      <c r="HU8"/>
+      <c r="HV8"/>
+      <c r="HW8"/>
+      <c r="HX8"/>
+      <c r="HY8"/>
+      <c r="HZ8"/>
+      <c r="IA8"/>
+      <c r="IB8"/>
+      <c r="IC8"/>
+      <c r="ID8"/>
+      <c r="IE8"/>
+      <c r="IF8"/>
+      <c r="IG8"/>
+      <c r="IH8"/>
+      <c r="II8"/>
+      <c r="IJ8"/>
+      <c r="IK8"/>
+      <c r="IL8"/>
+      <c r="IM8"/>
+      <c r="IN8"/>
+      <c r="IO8"/>
+      <c r="IP8"/>
+      <c r="IQ8"/>
+      <c r="IR8"/>
+      <c r="IS8"/>
+      <c r="IT8"/>
+      <c r="IU8"/>
+      <c r="IV8"/>
+      <c r="IW8"/>
+      <c r="IX8"/>
+      <c r="IY8"/>
+      <c r="IZ8"/>
+      <c r="JA8"/>
+      <c r="JB8"/>
+      <c r="JC8"/>
+      <c r="JD8"/>
+      <c r="JE8"/>
+      <c r="JF8"/>
+      <c r="JG8"/>
+      <c r="JH8"/>
+      <c r="JI8"/>
+      <c r="JJ8"/>
+      <c r="JK8"/>
+      <c r="JL8"/>
+      <c r="JM8"/>
+      <c r="JN8"/>
+      <c r="JO8"/>
+      <c r="JP8"/>
+      <c r="JQ8"/>
+      <c r="JR8"/>
+      <c r="JS8"/>
+      <c r="JT8"/>
+      <c r="JU8"/>
+      <c r="JV8"/>
+      <c r="JW8"/>
+      <c r="JX8"/>
+      <c r="JY8"/>
+      <c r="JZ8"/>
+      <c r="KA8"/>
+      <c r="KB8"/>
+      <c r="KC8"/>
+      <c r="KD8"/>
+      <c r="KE8"/>
+      <c r="KF8"/>
+      <c r="KG8"/>
+      <c r="KH8"/>
+      <c r="KI8"/>
+      <c r="KJ8"/>
+      <c r="KK8"/>
+      <c r="KL8"/>
+      <c r="KM8"/>
+      <c r="KN8"/>
+      <c r="KO8"/>
+      <c r="KP8"/>
+      <c r="KQ8"/>
+      <c r="KR8"/>
+      <c r="KS8"/>
+      <c r="KT8"/>
+      <c r="KU8"/>
+      <c r="KV8"/>
+      <c r="KW8"/>
+      <c r="KX8"/>
+      <c r="KY8"/>
+      <c r="KZ8"/>
+      <c r="LA8"/>
+      <c r="LB8"/>
+      <c r="LC8"/>
+      <c r="LD8"/>
+      <c r="LE8"/>
+      <c r="LF8"/>
+      <c r="LG8"/>
+      <c r="LH8"/>
+      <c r="LI8"/>
+      <c r="LJ8"/>
+      <c r="LK8"/>
+      <c r="LL8"/>
+      <c r="LM8"/>
+      <c r="LN8"/>
+      <c r="LO8"/>
+      <c r="LP8"/>
+      <c r="LQ8"/>
     </row>
-    <row r="9" spans="1:110" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:329" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1476,17 +2988,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1589,8 +3103,227 @@
       <c r="DD9"/>
       <c r="DE9"/>
       <c r="DF9"/>
+      <c r="DG9"/>
+      <c r="DH9"/>
+      <c r="DI9"/>
+      <c r="DJ9"/>
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+      <c r="DR9"/>
+      <c r="DS9"/>
+      <c r="DT9"/>
+      <c r="DU9"/>
+      <c r="DV9"/>
+      <c r="DW9"/>
+      <c r="DX9"/>
+      <c r="DY9"/>
+      <c r="DZ9"/>
+      <c r="EA9"/>
+      <c r="EB9"/>
+      <c r="EC9"/>
+      <c r="ED9"/>
+      <c r="EE9"/>
+      <c r="EF9"/>
+      <c r="EG9"/>
+      <c r="EH9"/>
+      <c r="EI9"/>
+      <c r="EJ9"/>
+      <c r="EK9"/>
+      <c r="EL9"/>
+      <c r="EM9"/>
+      <c r="EN9"/>
+      <c r="EO9"/>
+      <c r="EP9"/>
+      <c r="EQ9"/>
+      <c r="ER9"/>
+      <c r="ES9"/>
+      <c r="ET9"/>
+      <c r="EU9"/>
+      <c r="EV9"/>
+      <c r="EW9"/>
+      <c r="EX9"/>
+      <c r="EY9"/>
+      <c r="EZ9"/>
+      <c r="FA9"/>
+      <c r="FB9"/>
+      <c r="FC9"/>
+      <c r="FD9"/>
+      <c r="FE9"/>
+      <c r="FF9"/>
+      <c r="FG9"/>
+      <c r="FH9"/>
+      <c r="FI9"/>
+      <c r="FJ9"/>
+      <c r="FK9"/>
+      <c r="FL9"/>
+      <c r="FM9"/>
+      <c r="FN9"/>
+      <c r="FO9"/>
+      <c r="FP9"/>
+      <c r="FQ9"/>
+      <c r="FR9"/>
+      <c r="FS9"/>
+      <c r="FT9"/>
+      <c r="FU9"/>
+      <c r="FV9"/>
+      <c r="FW9"/>
+      <c r="FX9"/>
+      <c r="FY9"/>
+      <c r="FZ9"/>
+      <c r="GA9"/>
+      <c r="GB9"/>
+      <c r="GC9"/>
+      <c r="GD9"/>
+      <c r="GE9"/>
+      <c r="GF9"/>
+      <c r="GG9"/>
+      <c r="GH9"/>
+      <c r="GI9"/>
+      <c r="GJ9"/>
+      <c r="GK9"/>
+      <c r="GL9"/>
+      <c r="GM9"/>
+      <c r="GN9"/>
+      <c r="GO9"/>
+      <c r="GP9"/>
+      <c r="GQ9"/>
+      <c r="GR9"/>
+      <c r="GS9"/>
+      <c r="GT9"/>
+      <c r="GU9"/>
+      <c r="GV9"/>
+      <c r="GW9"/>
+      <c r="GX9"/>
+      <c r="GY9"/>
+      <c r="GZ9"/>
+      <c r="HA9"/>
+      <c r="HB9"/>
+      <c r="HC9"/>
+      <c r="HD9"/>
+      <c r="HE9"/>
+      <c r="HF9"/>
+      <c r="HG9"/>
+      <c r="HH9"/>
+      <c r="HI9"/>
+      <c r="HJ9"/>
+      <c r="HK9"/>
+      <c r="HL9"/>
+      <c r="HM9"/>
+      <c r="HN9"/>
+      <c r="HO9"/>
+      <c r="HP9"/>
+      <c r="HQ9"/>
+      <c r="HR9"/>
+      <c r="HS9"/>
+      <c r="HT9"/>
+      <c r="HU9"/>
+      <c r="HV9"/>
+      <c r="HW9"/>
+      <c r="HX9"/>
+      <c r="HY9"/>
+      <c r="HZ9"/>
+      <c r="IA9"/>
+      <c r="IB9"/>
+      <c r="IC9"/>
+      <c r="ID9"/>
+      <c r="IE9"/>
+      <c r="IF9"/>
+      <c r="IG9"/>
+      <c r="IH9"/>
+      <c r="II9"/>
+      <c r="IJ9"/>
+      <c r="IK9"/>
+      <c r="IL9"/>
+      <c r="IM9"/>
+      <c r="IN9"/>
+      <c r="IO9"/>
+      <c r="IP9"/>
+      <c r="IQ9"/>
+      <c r="IR9"/>
+      <c r="IS9"/>
+      <c r="IT9"/>
+      <c r="IU9"/>
+      <c r="IV9"/>
+      <c r="IW9"/>
+      <c r="IX9"/>
+      <c r="IY9"/>
+      <c r="IZ9"/>
+      <c r="JA9"/>
+      <c r="JB9"/>
+      <c r="JC9"/>
+      <c r="JD9"/>
+      <c r="JE9"/>
+      <c r="JF9"/>
+      <c r="JG9"/>
+      <c r="JH9"/>
+      <c r="JI9"/>
+      <c r="JJ9"/>
+      <c r="JK9"/>
+      <c r="JL9"/>
+      <c r="JM9"/>
+      <c r="JN9"/>
+      <c r="JO9"/>
+      <c r="JP9"/>
+      <c r="JQ9"/>
+      <c r="JR9"/>
+      <c r="JS9"/>
+      <c r="JT9"/>
+      <c r="JU9"/>
+      <c r="JV9"/>
+      <c r="JW9"/>
+      <c r="JX9"/>
+      <c r="JY9"/>
+      <c r="JZ9"/>
+      <c r="KA9"/>
+      <c r="KB9"/>
+      <c r="KC9"/>
+      <c r="KD9"/>
+      <c r="KE9"/>
+      <c r="KF9"/>
+      <c r="KG9"/>
+      <c r="KH9"/>
+      <c r="KI9"/>
+      <c r="KJ9"/>
+      <c r="KK9"/>
+      <c r="KL9"/>
+      <c r="KM9"/>
+      <c r="KN9"/>
+      <c r="KO9"/>
+      <c r="KP9"/>
+      <c r="KQ9"/>
+      <c r="KR9"/>
+      <c r="KS9"/>
+      <c r="KT9"/>
+      <c r="KU9"/>
+      <c r="KV9"/>
+      <c r="KW9"/>
+      <c r="KX9"/>
+      <c r="KY9"/>
+      <c r="KZ9"/>
+      <c r="LA9"/>
+      <c r="LB9"/>
+      <c r="LC9"/>
+      <c r="LD9"/>
+      <c r="LE9"/>
+      <c r="LF9"/>
+      <c r="LG9"/>
+      <c r="LH9"/>
+      <c r="LI9"/>
+      <c r="LJ9"/>
+      <c r="LK9"/>
+      <c r="LL9"/>
+      <c r="LM9"/>
+      <c r="LN9"/>
+      <c r="LO9"/>
+      <c r="LP9"/>
+      <c r="LQ9"/>
     </row>
-    <row r="10" spans="1:110" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:329" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1598,20 +3331,20 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1715,8 +3448,227 @@
       <c r="DD10"/>
       <c r="DE10"/>
       <c r="DF10"/>
+      <c r="DG10"/>
+      <c r="DH10"/>
+      <c r="DI10"/>
+      <c r="DJ10"/>
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+      <c r="DP10"/>
+      <c r="DQ10"/>
+      <c r="DR10"/>
+      <c r="DS10"/>
+      <c r="DT10"/>
+      <c r="DU10"/>
+      <c r="DV10"/>
+      <c r="DW10"/>
+      <c r="DX10"/>
+      <c r="DY10"/>
+      <c r="DZ10"/>
+      <c r="EA10"/>
+      <c r="EB10"/>
+      <c r="EC10"/>
+      <c r="ED10"/>
+      <c r="EE10"/>
+      <c r="EF10"/>
+      <c r="EG10"/>
+      <c r="EH10"/>
+      <c r="EI10"/>
+      <c r="EJ10"/>
+      <c r="EK10"/>
+      <c r="EL10"/>
+      <c r="EM10"/>
+      <c r="EN10"/>
+      <c r="EO10"/>
+      <c r="EP10"/>
+      <c r="EQ10"/>
+      <c r="ER10"/>
+      <c r="ES10"/>
+      <c r="ET10"/>
+      <c r="EU10"/>
+      <c r="EV10"/>
+      <c r="EW10"/>
+      <c r="EX10"/>
+      <c r="EY10"/>
+      <c r="EZ10"/>
+      <c r="FA10"/>
+      <c r="FB10"/>
+      <c r="FC10"/>
+      <c r="FD10"/>
+      <c r="FE10"/>
+      <c r="FF10"/>
+      <c r="FG10"/>
+      <c r="FH10"/>
+      <c r="FI10"/>
+      <c r="FJ10"/>
+      <c r="FK10"/>
+      <c r="FL10"/>
+      <c r="FM10"/>
+      <c r="FN10"/>
+      <c r="FO10"/>
+      <c r="FP10"/>
+      <c r="FQ10"/>
+      <c r="FR10"/>
+      <c r="FS10"/>
+      <c r="FT10"/>
+      <c r="FU10"/>
+      <c r="FV10"/>
+      <c r="FW10"/>
+      <c r="FX10"/>
+      <c r="FY10"/>
+      <c r="FZ10"/>
+      <c r="GA10"/>
+      <c r="GB10"/>
+      <c r="GC10"/>
+      <c r="GD10"/>
+      <c r="GE10"/>
+      <c r="GF10"/>
+      <c r="GG10"/>
+      <c r="GH10"/>
+      <c r="GI10"/>
+      <c r="GJ10"/>
+      <c r="GK10"/>
+      <c r="GL10"/>
+      <c r="GM10"/>
+      <c r="GN10"/>
+      <c r="GO10"/>
+      <c r="GP10"/>
+      <c r="GQ10"/>
+      <c r="GR10"/>
+      <c r="GS10"/>
+      <c r="GT10"/>
+      <c r="GU10"/>
+      <c r="GV10"/>
+      <c r="GW10"/>
+      <c r="GX10"/>
+      <c r="GY10"/>
+      <c r="GZ10"/>
+      <c r="HA10"/>
+      <c r="HB10"/>
+      <c r="HC10"/>
+      <c r="HD10"/>
+      <c r="HE10"/>
+      <c r="HF10"/>
+      <c r="HG10"/>
+      <c r="HH10"/>
+      <c r="HI10"/>
+      <c r="HJ10"/>
+      <c r="HK10"/>
+      <c r="HL10"/>
+      <c r="HM10"/>
+      <c r="HN10"/>
+      <c r="HO10"/>
+      <c r="HP10"/>
+      <c r="HQ10"/>
+      <c r="HR10"/>
+      <c r="HS10"/>
+      <c r="HT10"/>
+      <c r="HU10"/>
+      <c r="HV10"/>
+      <c r="HW10"/>
+      <c r="HX10"/>
+      <c r="HY10"/>
+      <c r="HZ10"/>
+      <c r="IA10"/>
+      <c r="IB10"/>
+      <c r="IC10"/>
+      <c r="ID10"/>
+      <c r="IE10"/>
+      <c r="IF10"/>
+      <c r="IG10"/>
+      <c r="IH10"/>
+      <c r="II10"/>
+      <c r="IJ10"/>
+      <c r="IK10"/>
+      <c r="IL10"/>
+      <c r="IM10"/>
+      <c r="IN10"/>
+      <c r="IO10"/>
+      <c r="IP10"/>
+      <c r="IQ10"/>
+      <c r="IR10"/>
+      <c r="IS10"/>
+      <c r="IT10"/>
+      <c r="IU10"/>
+      <c r="IV10"/>
+      <c r="IW10"/>
+      <c r="IX10"/>
+      <c r="IY10"/>
+      <c r="IZ10"/>
+      <c r="JA10"/>
+      <c r="JB10"/>
+      <c r="JC10"/>
+      <c r="JD10"/>
+      <c r="JE10"/>
+      <c r="JF10"/>
+      <c r="JG10"/>
+      <c r="JH10"/>
+      <c r="JI10"/>
+      <c r="JJ10"/>
+      <c r="JK10"/>
+      <c r="JL10"/>
+      <c r="JM10"/>
+      <c r="JN10"/>
+      <c r="JO10"/>
+      <c r="JP10"/>
+      <c r="JQ10"/>
+      <c r="JR10"/>
+      <c r="JS10"/>
+      <c r="JT10"/>
+      <c r="JU10"/>
+      <c r="JV10"/>
+      <c r="JW10"/>
+      <c r="JX10"/>
+      <c r="JY10"/>
+      <c r="JZ10"/>
+      <c r="KA10"/>
+      <c r="KB10"/>
+      <c r="KC10"/>
+      <c r="KD10"/>
+      <c r="KE10"/>
+      <c r="KF10"/>
+      <c r="KG10"/>
+      <c r="KH10"/>
+      <c r="KI10"/>
+      <c r="KJ10"/>
+      <c r="KK10"/>
+      <c r="KL10"/>
+      <c r="KM10"/>
+      <c r="KN10"/>
+      <c r="KO10"/>
+      <c r="KP10"/>
+      <c r="KQ10"/>
+      <c r="KR10"/>
+      <c r="KS10"/>
+      <c r="KT10"/>
+      <c r="KU10"/>
+      <c r="KV10"/>
+      <c r="KW10"/>
+      <c r="KX10"/>
+      <c r="KY10"/>
+      <c r="KZ10"/>
+      <c r="LA10"/>
+      <c r="LB10"/>
+      <c r="LC10"/>
+      <c r="LD10"/>
+      <c r="LE10"/>
+      <c r="LF10"/>
+      <c r="LG10"/>
+      <c r="LH10"/>
+      <c r="LI10"/>
+      <c r="LJ10"/>
+      <c r="LK10"/>
+      <c r="LL10"/>
+      <c r="LM10"/>
+      <c r="LN10"/>
+      <c r="LO10"/>
+      <c r="LP10"/>
+      <c r="LQ10"/>
     </row>
-    <row r="11" spans="1:110" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:329" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1724,17 +3676,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1837,8 +3791,227 @@
       <c r="DD11"/>
       <c r="DE11"/>
       <c r="DF11"/>
+      <c r="DG11"/>
+      <c r="DH11"/>
+      <c r="DI11"/>
+      <c r="DJ11"/>
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+      <c r="DP11"/>
+      <c r="DQ11"/>
+      <c r="DR11"/>
+      <c r="DS11"/>
+      <c r="DT11"/>
+      <c r="DU11"/>
+      <c r="DV11"/>
+      <c r="DW11"/>
+      <c r="DX11"/>
+      <c r="DY11"/>
+      <c r="DZ11"/>
+      <c r="EA11"/>
+      <c r="EB11"/>
+      <c r="EC11"/>
+      <c r="ED11"/>
+      <c r="EE11"/>
+      <c r="EF11"/>
+      <c r="EG11"/>
+      <c r="EH11"/>
+      <c r="EI11"/>
+      <c r="EJ11"/>
+      <c r="EK11"/>
+      <c r="EL11"/>
+      <c r="EM11"/>
+      <c r="EN11"/>
+      <c r="EO11"/>
+      <c r="EP11"/>
+      <c r="EQ11"/>
+      <c r="ER11"/>
+      <c r="ES11"/>
+      <c r="ET11"/>
+      <c r="EU11"/>
+      <c r="EV11"/>
+      <c r="EW11"/>
+      <c r="EX11"/>
+      <c r="EY11"/>
+      <c r="EZ11"/>
+      <c r="FA11"/>
+      <c r="FB11"/>
+      <c r="FC11"/>
+      <c r="FD11"/>
+      <c r="FE11"/>
+      <c r="FF11"/>
+      <c r="FG11"/>
+      <c r="FH11"/>
+      <c r="FI11"/>
+      <c r="FJ11"/>
+      <c r="FK11"/>
+      <c r="FL11"/>
+      <c r="FM11"/>
+      <c r="FN11"/>
+      <c r="FO11"/>
+      <c r="FP11"/>
+      <c r="FQ11"/>
+      <c r="FR11"/>
+      <c r="FS11"/>
+      <c r="FT11"/>
+      <c r="FU11"/>
+      <c r="FV11"/>
+      <c r="FW11"/>
+      <c r="FX11"/>
+      <c r="FY11"/>
+      <c r="FZ11"/>
+      <c r="GA11"/>
+      <c r="GB11"/>
+      <c r="GC11"/>
+      <c r="GD11"/>
+      <c r="GE11"/>
+      <c r="GF11"/>
+      <c r="GG11"/>
+      <c r="GH11"/>
+      <c r="GI11"/>
+      <c r="GJ11"/>
+      <c r="GK11"/>
+      <c r="GL11"/>
+      <c r="GM11"/>
+      <c r="GN11"/>
+      <c r="GO11"/>
+      <c r="GP11"/>
+      <c r="GQ11"/>
+      <c r="GR11"/>
+      <c r="GS11"/>
+      <c r="GT11"/>
+      <c r="GU11"/>
+      <c r="GV11"/>
+      <c r="GW11"/>
+      <c r="GX11"/>
+      <c r="GY11"/>
+      <c r="GZ11"/>
+      <c r="HA11"/>
+      <c r="HB11"/>
+      <c r="HC11"/>
+      <c r="HD11"/>
+      <c r="HE11"/>
+      <c r="HF11"/>
+      <c r="HG11"/>
+      <c r="HH11"/>
+      <c r="HI11"/>
+      <c r="HJ11"/>
+      <c r="HK11"/>
+      <c r="HL11"/>
+      <c r="HM11"/>
+      <c r="HN11"/>
+      <c r="HO11"/>
+      <c r="HP11"/>
+      <c r="HQ11"/>
+      <c r="HR11"/>
+      <c r="HS11"/>
+      <c r="HT11"/>
+      <c r="HU11"/>
+      <c r="HV11"/>
+      <c r="HW11"/>
+      <c r="HX11"/>
+      <c r="HY11"/>
+      <c r="HZ11"/>
+      <c r="IA11"/>
+      <c r="IB11"/>
+      <c r="IC11"/>
+      <c r="ID11"/>
+      <c r="IE11"/>
+      <c r="IF11"/>
+      <c r="IG11"/>
+      <c r="IH11"/>
+      <c r="II11"/>
+      <c r="IJ11"/>
+      <c r="IK11"/>
+      <c r="IL11"/>
+      <c r="IM11"/>
+      <c r="IN11"/>
+      <c r="IO11"/>
+      <c r="IP11"/>
+      <c r="IQ11"/>
+      <c r="IR11"/>
+      <c r="IS11"/>
+      <c r="IT11"/>
+      <c r="IU11"/>
+      <c r="IV11"/>
+      <c r="IW11"/>
+      <c r="IX11"/>
+      <c r="IY11"/>
+      <c r="IZ11"/>
+      <c r="JA11"/>
+      <c r="JB11"/>
+      <c r="JC11"/>
+      <c r="JD11"/>
+      <c r="JE11"/>
+      <c r="JF11"/>
+      <c r="JG11"/>
+      <c r="JH11"/>
+      <c r="JI11"/>
+      <c r="JJ11"/>
+      <c r="JK11"/>
+      <c r="JL11"/>
+      <c r="JM11"/>
+      <c r="JN11"/>
+      <c r="JO11"/>
+      <c r="JP11"/>
+      <c r="JQ11"/>
+      <c r="JR11"/>
+      <c r="JS11"/>
+      <c r="JT11"/>
+      <c r="JU11"/>
+      <c r="JV11"/>
+      <c r="JW11"/>
+      <c r="JX11"/>
+      <c r="JY11"/>
+      <c r="JZ11"/>
+      <c r="KA11"/>
+      <c r="KB11"/>
+      <c r="KC11"/>
+      <c r="KD11"/>
+      <c r="KE11"/>
+      <c r="KF11"/>
+      <c r="KG11"/>
+      <c r="KH11"/>
+      <c r="KI11"/>
+      <c r="KJ11"/>
+      <c r="KK11"/>
+      <c r="KL11"/>
+      <c r="KM11"/>
+      <c r="KN11"/>
+      <c r="KO11"/>
+      <c r="KP11"/>
+      <c r="KQ11"/>
+      <c r="KR11"/>
+      <c r="KS11"/>
+      <c r="KT11"/>
+      <c r="KU11"/>
+      <c r="KV11"/>
+      <c r="KW11"/>
+      <c r="KX11"/>
+      <c r="KY11"/>
+      <c r="KZ11"/>
+      <c r="LA11"/>
+      <c r="LB11"/>
+      <c r="LC11"/>
+      <c r="LD11"/>
+      <c r="LE11"/>
+      <c r="LF11"/>
+      <c r="LG11"/>
+      <c r="LH11"/>
+      <c r="LI11"/>
+      <c r="LJ11"/>
+      <c r="LK11"/>
+      <c r="LL11"/>
+      <c r="LM11"/>
+      <c r="LN11"/>
+      <c r="LO11"/>
+      <c r="LP11"/>
+      <c r="LQ11"/>
     </row>
-    <row r="12" spans="1:110" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:329" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1846,20 +4019,20 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1963,8 +4136,227 @@
       <c r="DD12"/>
       <c r="DE12"/>
       <c r="DF12"/>
+      <c r="DG12"/>
+      <c r="DH12"/>
+      <c r="DI12"/>
+      <c r="DJ12"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12"/>
+      <c r="DR12"/>
+      <c r="DS12"/>
+      <c r="DT12"/>
+      <c r="DU12"/>
+      <c r="DV12"/>
+      <c r="DW12"/>
+      <c r="DX12"/>
+      <c r="DY12"/>
+      <c r="DZ12"/>
+      <c r="EA12"/>
+      <c r="EB12"/>
+      <c r="EC12"/>
+      <c r="ED12"/>
+      <c r="EE12"/>
+      <c r="EF12"/>
+      <c r="EG12"/>
+      <c r="EH12"/>
+      <c r="EI12"/>
+      <c r="EJ12"/>
+      <c r="EK12"/>
+      <c r="EL12"/>
+      <c r="EM12"/>
+      <c r="EN12"/>
+      <c r="EO12"/>
+      <c r="EP12"/>
+      <c r="EQ12"/>
+      <c r="ER12"/>
+      <c r="ES12"/>
+      <c r="ET12"/>
+      <c r="EU12"/>
+      <c r="EV12"/>
+      <c r="EW12"/>
+      <c r="EX12"/>
+      <c r="EY12"/>
+      <c r="EZ12"/>
+      <c r="FA12"/>
+      <c r="FB12"/>
+      <c r="FC12"/>
+      <c r="FD12"/>
+      <c r="FE12"/>
+      <c r="FF12"/>
+      <c r="FG12"/>
+      <c r="FH12"/>
+      <c r="FI12"/>
+      <c r="FJ12"/>
+      <c r="FK12"/>
+      <c r="FL12"/>
+      <c r="FM12"/>
+      <c r="FN12"/>
+      <c r="FO12"/>
+      <c r="FP12"/>
+      <c r="FQ12"/>
+      <c r="FR12"/>
+      <c r="FS12"/>
+      <c r="FT12"/>
+      <c r="FU12"/>
+      <c r="FV12"/>
+      <c r="FW12"/>
+      <c r="FX12"/>
+      <c r="FY12"/>
+      <c r="FZ12"/>
+      <c r="GA12"/>
+      <c r="GB12"/>
+      <c r="GC12"/>
+      <c r="GD12"/>
+      <c r="GE12"/>
+      <c r="GF12"/>
+      <c r="GG12"/>
+      <c r="GH12"/>
+      <c r="GI12"/>
+      <c r="GJ12"/>
+      <c r="GK12"/>
+      <c r="GL12"/>
+      <c r="GM12"/>
+      <c r="GN12"/>
+      <c r="GO12"/>
+      <c r="GP12"/>
+      <c r="GQ12"/>
+      <c r="GR12"/>
+      <c r="GS12"/>
+      <c r="GT12"/>
+      <c r="GU12"/>
+      <c r="GV12"/>
+      <c r="GW12"/>
+      <c r="GX12"/>
+      <c r="GY12"/>
+      <c r="GZ12"/>
+      <c r="HA12"/>
+      <c r="HB12"/>
+      <c r="HC12"/>
+      <c r="HD12"/>
+      <c r="HE12"/>
+      <c r="HF12"/>
+      <c r="HG12"/>
+      <c r="HH12"/>
+      <c r="HI12"/>
+      <c r="HJ12"/>
+      <c r="HK12"/>
+      <c r="HL12"/>
+      <c r="HM12"/>
+      <c r="HN12"/>
+      <c r="HO12"/>
+      <c r="HP12"/>
+      <c r="HQ12"/>
+      <c r="HR12"/>
+      <c r="HS12"/>
+      <c r="HT12"/>
+      <c r="HU12"/>
+      <c r="HV12"/>
+      <c r="HW12"/>
+      <c r="HX12"/>
+      <c r="HY12"/>
+      <c r="HZ12"/>
+      <c r="IA12"/>
+      <c r="IB12"/>
+      <c r="IC12"/>
+      <c r="ID12"/>
+      <c r="IE12"/>
+      <c r="IF12"/>
+      <c r="IG12"/>
+      <c r="IH12"/>
+      <c r="II12"/>
+      <c r="IJ12"/>
+      <c r="IK12"/>
+      <c r="IL12"/>
+      <c r="IM12"/>
+      <c r="IN12"/>
+      <c r="IO12"/>
+      <c r="IP12"/>
+      <c r="IQ12"/>
+      <c r="IR12"/>
+      <c r="IS12"/>
+      <c r="IT12"/>
+      <c r="IU12"/>
+      <c r="IV12"/>
+      <c r="IW12"/>
+      <c r="IX12"/>
+      <c r="IY12"/>
+      <c r="IZ12"/>
+      <c r="JA12"/>
+      <c r="JB12"/>
+      <c r="JC12"/>
+      <c r="JD12"/>
+      <c r="JE12"/>
+      <c r="JF12"/>
+      <c r="JG12"/>
+      <c r="JH12"/>
+      <c r="JI12"/>
+      <c r="JJ12"/>
+      <c r="JK12"/>
+      <c r="JL12"/>
+      <c r="JM12"/>
+      <c r="JN12"/>
+      <c r="JO12"/>
+      <c r="JP12"/>
+      <c r="JQ12"/>
+      <c r="JR12"/>
+      <c r="JS12"/>
+      <c r="JT12"/>
+      <c r="JU12"/>
+      <c r="JV12"/>
+      <c r="JW12"/>
+      <c r="JX12"/>
+      <c r="JY12"/>
+      <c r="JZ12"/>
+      <c r="KA12"/>
+      <c r="KB12"/>
+      <c r="KC12"/>
+      <c r="KD12"/>
+      <c r="KE12"/>
+      <c r="KF12"/>
+      <c r="KG12"/>
+      <c r="KH12"/>
+      <c r="KI12"/>
+      <c r="KJ12"/>
+      <c r="KK12"/>
+      <c r="KL12"/>
+      <c r="KM12"/>
+      <c r="KN12"/>
+      <c r="KO12"/>
+      <c r="KP12"/>
+      <c r="KQ12"/>
+      <c r="KR12"/>
+      <c r="KS12"/>
+      <c r="KT12"/>
+      <c r="KU12"/>
+      <c r="KV12"/>
+      <c r="KW12"/>
+      <c r="KX12"/>
+      <c r="KY12"/>
+      <c r="KZ12"/>
+      <c r="LA12"/>
+      <c r="LB12"/>
+      <c r="LC12"/>
+      <c r="LD12"/>
+      <c r="LE12"/>
+      <c r="LF12"/>
+      <c r="LG12"/>
+      <c r="LH12"/>
+      <c r="LI12"/>
+      <c r="LJ12"/>
+      <c r="LK12"/>
+      <c r="LL12"/>
+      <c r="LM12"/>
+      <c r="LN12"/>
+      <c r="LO12"/>
+      <c r="LP12"/>
+      <c r="LQ12"/>
     </row>
-    <row r="13" spans="1:110" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:329" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -1972,17 +4364,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -2085,16 +4479,234 @@
       <c r="DD13"/>
       <c r="DE13"/>
       <c r="DF13"/>
+      <c r="DG13"/>
+      <c r="DH13"/>
+      <c r="DI13"/>
+      <c r="DJ13"/>
+      <c r="DK13"/>
+      <c r="DL13"/>
+      <c r="DM13"/>
+      <c r="DN13"/>
+      <c r="DO13"/>
+      <c r="DP13"/>
+      <c r="DQ13"/>
+      <c r="DR13"/>
+      <c r="DS13"/>
+      <c r="DT13"/>
+      <c r="DU13"/>
+      <c r="DV13"/>
+      <c r="DW13"/>
+      <c r="DX13"/>
+      <c r="DY13"/>
+      <c r="DZ13"/>
+      <c r="EA13"/>
+      <c r="EB13"/>
+      <c r="EC13"/>
+      <c r="ED13"/>
+      <c r="EE13"/>
+      <c r="EF13"/>
+      <c r="EG13"/>
+      <c r="EH13"/>
+      <c r="EI13"/>
+      <c r="EJ13"/>
+      <c r="EK13"/>
+      <c r="EL13"/>
+      <c r="EM13"/>
+      <c r="EN13"/>
+      <c r="EO13"/>
+      <c r="EP13"/>
+      <c r="EQ13"/>
+      <c r="ER13"/>
+      <c r="ES13"/>
+      <c r="ET13"/>
+      <c r="EU13"/>
+      <c r="EV13"/>
+      <c r="EW13"/>
+      <c r="EX13"/>
+      <c r="EY13"/>
+      <c r="EZ13"/>
+      <c r="FA13"/>
+      <c r="FB13"/>
+      <c r="FC13"/>
+      <c r="FD13"/>
+      <c r="FE13"/>
+      <c r="FF13"/>
+      <c r="FG13"/>
+      <c r="FH13"/>
+      <c r="FI13"/>
+      <c r="FJ13"/>
+      <c r="FK13"/>
+      <c r="FL13"/>
+      <c r="FM13"/>
+      <c r="FN13"/>
+      <c r="FO13"/>
+      <c r="FP13"/>
+      <c r="FQ13"/>
+      <c r="FR13"/>
+      <c r="FS13"/>
+      <c r="FT13"/>
+      <c r="FU13"/>
+      <c r="FV13"/>
+      <c r="FW13"/>
+      <c r="FX13"/>
+      <c r="FY13"/>
+      <c r="FZ13"/>
+      <c r="GA13"/>
+      <c r="GB13"/>
+      <c r="GC13"/>
+      <c r="GD13"/>
+      <c r="GE13"/>
+      <c r="GF13"/>
+      <c r="GG13"/>
+      <c r="GH13"/>
+      <c r="GI13"/>
+      <c r="GJ13"/>
+      <c r="GK13"/>
+      <c r="GL13"/>
+      <c r="GM13"/>
+      <c r="GN13"/>
+      <c r="GO13"/>
+      <c r="GP13"/>
+      <c r="GQ13"/>
+      <c r="GR13"/>
+      <c r="GS13"/>
+      <c r="GT13"/>
+      <c r="GU13"/>
+      <c r="GV13"/>
+      <c r="GW13"/>
+      <c r="GX13"/>
+      <c r="GY13"/>
+      <c r="GZ13"/>
+      <c r="HA13"/>
+      <c r="HB13"/>
+      <c r="HC13"/>
+      <c r="HD13"/>
+      <c r="HE13"/>
+      <c r="HF13"/>
+      <c r="HG13"/>
+      <c r="HH13"/>
+      <c r="HI13"/>
+      <c r="HJ13"/>
+      <c r="HK13"/>
+      <c r="HL13"/>
+      <c r="HM13"/>
+      <c r="HN13"/>
+      <c r="HO13"/>
+      <c r="HP13"/>
+      <c r="HQ13"/>
+      <c r="HR13"/>
+      <c r="HS13"/>
+      <c r="HT13"/>
+      <c r="HU13"/>
+      <c r="HV13"/>
+      <c r="HW13"/>
+      <c r="HX13"/>
+      <c r="HY13"/>
+      <c r="HZ13"/>
+      <c r="IA13"/>
+      <c r="IB13"/>
+      <c r="IC13"/>
+      <c r="ID13"/>
+      <c r="IE13"/>
+      <c r="IF13"/>
+      <c r="IG13"/>
+      <c r="IH13"/>
+      <c r="II13"/>
+      <c r="IJ13"/>
+      <c r="IK13"/>
+      <c r="IL13"/>
+      <c r="IM13"/>
+      <c r="IN13"/>
+      <c r="IO13"/>
+      <c r="IP13"/>
+      <c r="IQ13"/>
+      <c r="IR13"/>
+      <c r="IS13"/>
+      <c r="IT13"/>
+      <c r="IU13"/>
+      <c r="IV13"/>
+      <c r="IW13"/>
+      <c r="IX13"/>
+      <c r="IY13"/>
+      <c r="IZ13"/>
+      <c r="JA13"/>
+      <c r="JB13"/>
+      <c r="JC13"/>
+      <c r="JD13"/>
+      <c r="JE13"/>
+      <c r="JF13"/>
+      <c r="JG13"/>
+      <c r="JH13"/>
+      <c r="JI13"/>
+      <c r="JJ13"/>
+      <c r="JK13"/>
+      <c r="JL13"/>
+      <c r="JM13"/>
+      <c r="JN13"/>
+      <c r="JO13"/>
+      <c r="JP13"/>
+      <c r="JQ13"/>
+      <c r="JR13"/>
+      <c r="JS13"/>
+      <c r="JT13"/>
+      <c r="JU13"/>
+      <c r="JV13"/>
+      <c r="JW13"/>
+      <c r="JX13"/>
+      <c r="JY13"/>
+      <c r="JZ13"/>
+      <c r="KA13"/>
+      <c r="KB13"/>
+      <c r="KC13"/>
+      <c r="KD13"/>
+      <c r="KE13"/>
+      <c r="KF13"/>
+      <c r="KG13"/>
+      <c r="KH13"/>
+      <c r="KI13"/>
+      <c r="KJ13"/>
+      <c r="KK13"/>
+      <c r="KL13"/>
+      <c r="KM13"/>
+      <c r="KN13"/>
+      <c r="KO13"/>
+      <c r="KP13"/>
+      <c r="KQ13"/>
+      <c r="KR13"/>
+      <c r="KS13"/>
+      <c r="KT13"/>
+      <c r="KU13"/>
+      <c r="KV13"/>
+      <c r="KW13"/>
+      <c r="KX13"/>
+      <c r="KY13"/>
+      <c r="KZ13"/>
+      <c r="LA13"/>
+      <c r="LB13"/>
+      <c r="LC13"/>
+      <c r="LD13"/>
+      <c r="LE13"/>
+      <c r="LF13"/>
+      <c r="LG13"/>
+      <c r="LH13"/>
+      <c r="LI13"/>
+      <c r="LJ13"/>
+      <c r="LK13"/>
+      <c r="LL13"/>
+      <c r="LM13"/>
+      <c r="LN13"/>
+      <c r="LO13"/>
+      <c r="LP13"/>
+      <c r="LQ13"/>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+    <row r="14" spans="1:329" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
